--- a/excel/class_notes/AutoFill and Custom Lists.xlsx
+++ b/excel/class_notes/AutoFill and Custom Lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\class_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C213D5DE-3DA8-4DAD-958A-E0DFCCA0A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD308D2-BE38-4292-81BC-03B91ACDE774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C8EEAD0C-7D97-45FF-B0A9-35E7743A255C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8EEAD0C-7D97-45FF-B0A9-35E7743A255C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>### AutoFill and Custom Lists in Excel</t>
   </si>
@@ -329,13 +329,25 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +359,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -697,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E7FEEE-75F5-4EA9-A914-51D6DA1C1801}">
-  <dimension ref="A1:A141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A141"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,122 +1098,175 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>98</v>
+      </c>
+      <c r="J121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>99</v>
+      </c>
+      <c r="J122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>100</v>
+      </c>
+      <c r="J123" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>101</v>
+      </c>
+      <c r="J124" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J121:J124">
+    <sortCondition ref="J121:J124" customList="c1,c2,c3,c4"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0B027-642A-455D-AF7F-04B17AB716C0}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1244,6 +1315,71 @@
         <v>97</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/class_notes/AutoFill and Custom Lists.xlsx
+++ b/excel/class_notes/AutoFill and Custom Lists.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\class_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD308D2-BE38-4292-81BC-03B91ACDE774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096407B-2BB7-44E8-B206-991D7C294106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8EEAD0C-7D97-45FF-B0A9-35E7743A255C}"/>
   </bookViews>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>### AutoFill and Custom Lists in Excel</t>
   </si>
@@ -341,6 +363,18 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>deep4</t>
+  </si>
+  <si>
+    <t>i126</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -715,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E7FEEE-75F5-4EA9-A914-51D6DA1C1801}">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,32 +1132,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>77</v>
       </c>
@@ -1133,8 +1170,11 @@
       <c r="J121" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>78</v>
       </c>
@@ -1144,8 +1184,11 @@
       <c r="J122" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H123" t="s">
         <v>100</v>
       </c>
@@ -1153,7 +1196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>79</v>
       </c>
@@ -1164,7 +1207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>80</v>
       </c>
@@ -1172,25 +1215,45 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>81</v>
       </c>
       <c r="H126" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>103</v>
+      </c>
+      <c r="J126" t="s">
+        <v>104</v>
+      </c>
+      <c r="K126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>82</v>
       </c>
       <c r="H127" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J127" t="str" cm="1">
+        <f t="array" aca="1" ref="J127" ca="1">INDIRECT(J126)</f>
+        <v>deep4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H128" t="s">
         <v>101</v>
+      </c>
+      <c r="J128" t="s">
+        <v>105</v>
+      </c>
+      <c r="K128" t="str">
+        <f ca="1">OFFSET(I126,2,1)</f>
+        <v>e</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -1266,7 +1329,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
